--- a/テスト/結合テストチェックリスト_加藤.xlsx
+++ b/テスト/結合テストチェックリスト_加藤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F186F8D-2D78-4CFD-94B2-0ED419E4157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E9E8C-BA43-4174-B588-F835CDDE1AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -164,6 +164,431 @@
   <si>
     <t>テスト
 No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤　千瑞</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[パスワード]</t>
+  </si>
+  <si>
+    <t>[パスワード]に数値が
+入力できることを確認</t>
+    <rPh sb="8" eb="10">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[パスワード]に全角文字が入力できることを確認</t>
+    <rPh sb="8" eb="12">
+      <t>ゼンカクモジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[パスワード]に半角英数字が入力できることを確認</t>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[パスワード]に数値が
+入力できる</t>
+    <rPh sb="8" eb="10">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[パスワード]に全角文字が入力できる</t>
+    <rPh sb="8" eb="12">
+      <t>ゼンカクモジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[パスワード]に半角英数字が入力できる</t>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABCあいう１２３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]</t>
+  </si>
+  <si>
+    <t>[ユーザID]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]に数値が
+入力できることを確認</t>
+    <rPh sb="8" eb="10">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]に数値が
+入力できる</t>
+    <rPh sb="8" eb="10">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]に全角文字が入力できることを確認</t>
+    <rPh sb="8" eb="12">
+      <t>ゼンカクモジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]に全角文字が入力できる</t>
+    <rPh sb="8" eb="12">
+      <t>ゼンカクモジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]に半角英数字が入力できることを確認</t>
+    <rPh sb="2" eb="4">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]に半角英数字が入力できる</t>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[エラーメッセージ]に
+"※ユーザIDかパスワードが違います"と表示</t>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[選択]画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目管理]</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コウモクカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[給与テーブル]</t>
+    <rPh sb="1" eb="3">
+      <t>キュウヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価実施]</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価出力]</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ログイン]</t>
+  </si>
+  <si>
+    <t>[ログイン]ボタン押下時
+[ユーザID]と[パスワード]が未入力の場合のエラーの確認</t>
+    <rPh sb="9" eb="12">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=なし
+[パスワード]
+入力値=なし
+[ログイン]ボタン押下時</t>
+  </si>
+  <si>
+    <t>[ログイン]ボタン押下時
+[ユーザID]が未入力の場合のエラーの確認</t>
+    <rPh sb="9" eb="12">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=なし
+[パスワード]
+入力値=12345
+[ログイン]ボタン押下時</t>
+  </si>
+  <si>
+    <t>[ログイン]ボタン押下時
+[パスワード]が未入力の場合のエラーの確認</t>
+    <rPh sb="9" eb="12">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=12345
+[パスワード]
+入力値=なし
+[ログイン]ボタン押下時</t>
+  </si>
+  <si>
+    <t>[ログイン]ボタン押下時
+[パスワード]が
+[TM_user]にある[password]と
+違う場合のエラーの確認</t>
+    <rPh sb="46" eb="47">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=iwata
+[パスワード]
+入力値=12345
+[ログイン]ボタン押下時</t>
+  </si>
+  <si>
+    <t>[ログイン]ボタン押下時
+[ユーザID]が
+[TM_user]にある[user_id]に
+存在しない場合のエラーの確認</t>
+    <rPh sb="45" eb="47">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=12345
+[パスワード]
+入力値=password
+[ログイン]ボタン押下時</t>
+  </si>
+  <si>
+    <t>[ログイン]ボタン押下時
+[ユーザID]が[TM_user]にある[user_id]に存在し、[パスワード]が対応した[password]の場合</t>
+    <rPh sb="43" eb="45">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ログイン]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員管理]</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員管理]ボタン押下時
+[社員管理]画面に</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -615,6 +1040,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,19 +1059,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B107" sqref="A107:XFD107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -972,70 +1397,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="J1" s="49">
+        <v>45163</v>
+      </c>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
+      <c r="J2" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -1043,233 +1472,377 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="52"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+    </row>
+    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="39"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="14"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="42"/>
       <c r="K10" s="14"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="J11" s="42"/>
       <c r="K11" s="14"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="43"/>
       <c r="K13" s="14"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="14"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="14"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="14"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="14"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="14"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="14"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="42"/>
@@ -1281,8 +1854,12 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="8"/>
@@ -1295,8 +1872,12 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="15"/>
@@ -1309,8 +1890,12 @@
       <c r="B23" s="18"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1323,8 +1908,12 @@
       <c r="B24" s="20"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2256,7 +2845,7 @@
       <c r="K90" s="14"/>
       <c r="L90" s="11"/>
     </row>
-    <row r="91" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="8"/>
       <c r="B91" s="26"/>
       <c r="C91" s="27"/>
@@ -2270,7 +2859,7 @@
       <c r="K91" s="39"/>
       <c r="L91" s="38"/>
     </row>
-    <row r="92" spans="1:13" s="40" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2837,16 +3426,6 @@
   </sheetData>
   <autoFilter ref="A7:N131" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -2854,6 +3433,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト/結合テストチェックリスト_加藤.xlsx
+++ b/テスト/結合テストチェックリスト_加藤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E9E8C-BA43-4174-B588-F835CDDE1AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C180D3-48FF-43D9-BD23-5A5D7BA8E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="結合テストチェックリスト" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テストチェックリスト!$A$7:$N$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テストチェックリスト!$A$7:$N$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -420,9 +420,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[ログイン]</t>
-  </si>
-  <si>
     <t>[ログイン]ボタン押下時
 [ユーザID]と[パスワード]が未入力の場合のエラーの確認</t>
     <rPh sb="9" eb="12">
@@ -440,13 +437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[ユーザID]
-入力値=なし
-[パスワード]
-入力値=なし
-[ログイン]ボタン押下時</t>
-  </si>
-  <si>
     <t>[ログイン]ボタン押下時
 [ユーザID]が未入力の場合のエラーの確認</t>
     <rPh sb="9" eb="12">
@@ -464,13 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[ユーザID]
-入力値=なし
-[パスワード]
-入力値=12345
-[ログイン]ボタン押下時</t>
-  </si>
-  <si>
     <t>[ログイン]ボタン押下時
 [パスワード]が未入力の場合のエラーの確認</t>
     <rPh sb="9" eb="12">
@@ -486,13 +469,6 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[ユーザID]
-入力値=12345
-[パスワード]
-入力値=なし
-[ログイン]ボタン押下時</t>
   </si>
   <si>
     <t>[ログイン]ボタン押下時
@@ -511,13 +487,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[ユーザID]
-入力値=iwata
-[パスワード]
-入力値=12345
-[ログイン]ボタン押下時</t>
-  </si>
-  <si>
     <t>[ログイン]ボタン押下時
 [ユーザID]が
 [TM_user]にある[user_id]に
@@ -534,15 +503,193 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>[ログイン]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員管理]</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックス
+（password）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[パスワード]に
+入力された値が
+●で隠された状態で表示される確認</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値が隠された状態で表示される</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=なし
+[パスワード]
+入力値=なし
+[ログイン]ボタン押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=なし
+[パスワード]
+入力値=12345
+[ログイン]ボタン押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=12345
+[パスワード]
+入力値=なし
+[ログイン]ボタン押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=iwata
+[パスワード]
+入力値=12345
+[ログイン]ボタン押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>[ユーザID]
 入力値=12345
 [パスワード]
 入力値=password
-[ログイン]ボタン押下時</t>
+[ログイン]ボタン押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員管理]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>シャインカンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目管理]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[給与テーブル]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目出力]ボタン
+押下</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目管理]ボタン
+押下</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザID]
+入力値=iwata
+[パスワード]
+入力値=password
+[ログイン]ボタン押下</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[ログイン]ボタン押下時
-[ユーザID]が[TM_user]にある[user_id]に存在し、[パスワード]が対応した[password]の場合</t>
+[ユーザID]が[TM_user]にある[user_id]に存在し、[パスワード]が対応した[password]の場合[選択]画面に遷移できることの確認</t>
     <rPh sb="43" eb="45">
       <t>ソンザイ</t>
     </rPh>
@@ -552,42 +699,759 @@
     <rPh sb="70" eb="72">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[ログイン]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員管理]</t>
+    <rPh sb="73" eb="75">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員管理]ボタン押下時
+[社員管理]画面に遷移できることの確認</t>
     <rPh sb="1" eb="3">
       <t>シャイン</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員管理]ボタン押下時
-[社員管理]画面に</t>
+    <rPh sb="9" eb="12">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目管理]ボタン押下時
+[評価項目管理]画面に遷移できることの確認</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[給与テーブル]ボタン押下時
+[給与テーブル]画面に遷移できることの確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価実施]ボタン押下時
+[評価実施]画面に遷移できることの確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価出力]ボタン押下時
+[評価出力]画面に遷移できることの確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員管理]画面に遷移</t>
     <rPh sb="1" eb="3">
       <t>シャイン</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
     </rPh>
-    <rPh sb="9" eb="12">
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価実施]画面に遷移</t>
+  </si>
+  <si>
+    <t>[評価出力]画面に遷移</t>
+  </si>
+  <si>
+    <t>[給与テーブル]画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目管理]画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給与テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>キュウヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[最低賃金テーブル]</t>
+    <rPh sb="1" eb="5">
+      <t>サイテイチンギン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面読み込み時[給与テーブル]に[TM_salaly]のデータが表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面読み込み時[最低賃金テーブル]に[TM_min_money]のデータが表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>サイテイチンギン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面読み込み時[給与テーブル]に表示されている[月給]が[TM_min_money]にある[min_money]より小さい時、背景がグレーになっていることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゲッキュウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[画面読み込み時]</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[給与テーブル]に[TM_salary]のデータが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[最低賃金テーブル]に[TM_min_money]のデータが表示されている</t>
+    <rPh sb="1" eb="5">
+      <t>サイテイチンギン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[給与テーブル]に表示されている[月給]が[TM_min_money]にある[min_money]より小さい時、背景がグレーになっている</t>
+    <rPh sb="1" eb="3">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲッキュウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員管理</t>
+    <rPh sb="0" eb="4">
+      <t>シャインカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員テーブル]</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員テーブル]に[TM_staff]のデータが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員テーブル]クリック</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックした行のデータがテキストボックスに表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TM_salary]にデータがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TM_min_money]にデータがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TM_staff]にデータがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TM_user]にデータがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録]ボタン押下時
+[登録確認]ポップアップが
+表示されることの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
       <t>オウカジ</t>
     </rPh>
+    <rPh sb="12" eb="16">
+      <t>トウロクカクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員テーブル]クリック時、
+クリックした行のデータが
+テキストボックスに
+表示されることの確認</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面読み込み時[社員テーブル]に[TM_staff]のデータが
+表示されていることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認]ポップアップが
+表示される</t>
+    <rPh sb="1" eb="5">
+      <t>トウロクカクニン</t>
+    </rPh>
     <rPh sb="14" eb="16">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新]ボタン押下時
+[更新確認]ポップアップが
+表示されることの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[戻る]ボタン押下時
+[戻る確認]ポップアップが
+表示されることの確認</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[戻る]ボタン押下</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認]ポップアップが
+表示される</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[戻る確認]ポップアップが
+表示される</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録]</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新]</t>
+  </si>
+  <si>
+    <t>[戻る]</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに何も入力されていないときのエラーの確認</t>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[エラーメッセージ]に
+"※社員番号を入力してください。"
+"※氏名を入力してください。"
+"※社員番号は6桁で入力してください。"
+と表示される</t>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]入力値=なし
+[社員番号]入力値=なし
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="111" eb="114">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="127" eb="130">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]入力値=なし
+[社員番号]入力値=なし
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -655,7 +1519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -886,13 +1750,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,9 +1876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1040,6 +1921,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,17 +1942,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1388,7 +2281,7 @@
     <col min="3" max="3" width="4.375" customWidth="1"/>
     <col min="4" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
     <col min="9" max="9" width="30.625" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
@@ -1397,74 +2290,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="52">
         <v>45163</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -1472,68 +2365,70 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="55"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+      <c r="B8" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1550,7 +2445,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
@@ -1559,7 +2454,9 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1585,7 +2482,9 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1601,7 +2500,7 @@
       <c r="I10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="14"/>
       <c r="L10" s="11"/>
     </row>
@@ -1609,7 +2508,9 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +2526,7 @@
       <c r="I11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="14"/>
       <c r="L11" s="11"/>
     </row>
@@ -1633,7 +2534,9 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1657,7 +2560,9 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
@@ -1673,52 +2578,54 @@
       <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="14"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="11"/>
+      <c r="G14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="42"/>
       <c r="K14" s="14"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>38</v>
@@ -1727,22 +2634,24 @@
       <c r="K15" s="14"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F16" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>38</v>
@@ -1751,22 +2660,24 @@
       <c r="K16" s="14"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>38</v>
@@ -1775,22 +2686,24 @@
       <c r="K17" s="14"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F18" s="13" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>38</v>
@@ -1799,278 +2712,446 @@
       <c r="K18" s="14"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F19" s="13" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="14"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>18</v>
+      <c r="E20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="42"/>
+        <v>68</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="11"/>
       <c r="K20" s="14"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E21" s="8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="11"/>
+      <c r="G21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="41"/>
       <c r="K21" s="14"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="16" t="s">
+    <row r="22" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="17"/>
+      <c r="G22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="11"/>
       <c r="K22" s="14"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+    <row r="23" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
+      <c r="G24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="G25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="15"/>
+      <c r="B26" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="8">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="E32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="14"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="E33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="14"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="E34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="J34" s="11"/>
       <c r="K34" s="14"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="E35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="14"/>
       <c r="L35" s="11"/>
@@ -2081,10 +3162,10 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="14"/>
       <c r="L36" s="11"/>
@@ -2095,81 +3176,81 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="29"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="14"/>
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="6"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="42"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="29"/>
       <c r="K40" s="14"/>
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="11"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="42"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="41"/>
       <c r="K42" s="14"/>
       <c r="L42" s="11"/>
     </row>
@@ -2182,8 +3263,8 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="11"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="45"/>
       <c r="K43" s="14"/>
       <c r="L43" s="11"/>
     </row>
@@ -2196,66 +3277,66 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="11"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="41"/>
       <c r="K44" s="14"/>
       <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="17"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="6"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="11"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="17"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="11"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
@@ -2279,7 +3360,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="8"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="14"/>
@@ -2291,67 +3372,67 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="14"/>
       <c r="L51" s="11"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="17"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="11"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="6"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="14"/>
       <c r="L53" s="11"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="11"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="11"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="6"/>
       <c r="K55" s="14"/>
       <c r="L55" s="11"/>
     </row>
@@ -2360,9 +3441,9 @@
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
@@ -2371,71 +3452,71 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="14"/>
       <c r="L57" s="11"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="6"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
       <c r="K58" s="14"/>
       <c r="L58" s="11"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="11"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="17"/>
       <c r="K59" s="14"/>
       <c r="L59" s="11"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="42"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="6"/>
       <c r="K60" s="14"/>
       <c r="L60" s="11"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="44"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
       <c r="K61" s="14"/>
       <c r="L61" s="11"/>
     </row>
@@ -2447,23 +3528,23 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="11"/>
+      <c r="J62" s="41"/>
       <c r="K62" s="14"/>
       <c r="L62" s="11"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="11"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="43"/>
       <c r="K63" s="14"/>
       <c r="L63" s="11"/>
     </row>
@@ -2475,7 +3556,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="35"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="14"/>
@@ -2485,13 +3566,13 @@
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="42"/>
+      <c r="J65" s="11"/>
       <c r="K65" s="14"/>
       <c r="L65" s="11"/>
     </row>
@@ -2499,13 +3580,13 @@
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="12"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="8"/>
+      <c r="H66" s="34"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="42"/>
+      <c r="J66" s="11"/>
       <c r="K66" s="14"/>
       <c r="L66" s="11"/>
     </row>
@@ -2514,12 +3595,12 @@
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="12"/>
       <c r="G67" s="9"/>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="11"/>
+      <c r="J67" s="41"/>
       <c r="K67" s="14"/>
       <c r="L67" s="11"/>
     </row>
@@ -2528,12 +3609,12 @@
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="8"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="13"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="42"/>
+      <c r="J68" s="41"/>
       <c r="K68" s="14"/>
       <c r="L68" s="11"/>
     </row>
@@ -2542,12 +3623,12 @@
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="12"/>
       <c r="G69" s="9"/>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="42"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="14"/>
       <c r="L69" s="11"/>
     </row>
@@ -2556,12 +3637,12 @@
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="12"/>
       <c r="G70" s="9"/>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="11"/>
+      <c r="J70" s="41"/>
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
     </row>
@@ -2570,12 +3651,12 @@
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="12"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="11"/>
+      <c r="J71" s="41"/>
       <c r="K71" s="14"/>
       <c r="L71" s="11"/>
     </row>
@@ -2584,10 +3665,10 @@
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="12"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="14"/>
@@ -2595,15 +3676,15 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="8"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="34"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
       <c r="K73" s="14"/>
       <c r="L73" s="11"/>
     </row>
@@ -2611,27 +3692,27 @@
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="9"/>
+      <c r="F74" s="12"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="34"/>
+      <c r="J74" s="11"/>
       <c r="K74" s="14"/>
       <c r="L74" s="11"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="34"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="33"/>
       <c r="K75" s="14"/>
       <c r="L75" s="11"/>
     </row>
@@ -2645,7 +3726,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="34"/>
+      <c r="J76" s="33"/>
       <c r="K76" s="14"/>
       <c r="L76" s="11"/>
     </row>
@@ -2659,7 +3740,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="11"/>
+      <c r="J77" s="33"/>
       <c r="K77" s="14"/>
       <c r="L77" s="11"/>
     </row>
@@ -2673,7 +3754,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="11"/>
+      <c r="J78" s="33"/>
       <c r="K78" s="14"/>
       <c r="L78" s="11"/>
     </row>
@@ -2705,7 +3786,7 @@
       <c r="K80" s="14"/>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -2719,7 +3800,7 @@
       <c r="K81" s="14"/>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -2729,11 +3810,11 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="42"/>
+      <c r="J82" s="11"/>
       <c r="K82" s="14"/>
       <c r="L82" s="11"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -2747,7 +3828,7 @@
       <c r="K83" s="14"/>
       <c r="L83" s="11"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -2757,11 +3838,11 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="42"/>
+      <c r="J84" s="41"/>
       <c r="K84" s="14"/>
       <c r="L84" s="11"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2775,21 +3856,21 @@
       <c r="K85" s="14"/>
       <c r="L85" s="11"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="42"/>
+      <c r="J86" s="41"/>
       <c r="K86" s="14"/>
       <c r="L86" s="11"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2803,21 +3884,21 @@
       <c r="K87" s="14"/>
       <c r="L87" s="11"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="9"/>
+      <c r="F88" s="8"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="11"/>
+      <c r="J88" s="41"/>
       <c r="K88" s="14"/>
       <c r="L88" s="11"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2827,67 +3908,67 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="42"/>
+      <c r="J89" s="11"/>
       <c r="K89" s="14"/>
       <c r="L89" s="11"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" s="8"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="45"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
       <c r="K90" s="14"/>
       <c r="L90" s="11"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" s="8"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="38"/>
-    </row>
-    <row r="92" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="11"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="11"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="44"/>
       <c r="K92" s="14"/>
       <c r="L92" s="11"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" s="8"/>
       <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="11"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="F93" s="27"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="37"/>
+    </row>
+    <row r="94" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2901,22 +3982,21 @@
       <c r="K94" s="14"/>
       <c r="L94" s="11"/>
     </row>
-    <row r="95" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="42"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
       <c r="K95" s="14"/>
       <c r="L95" s="11"/>
-      <c r="M95"/>
-    </row>
-    <row r="96" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -2926,26 +4006,26 @@
       <c r="G96" s="9"/>
       <c r="H96" s="10"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="42"/>
+      <c r="J96" s="11"/>
       <c r="K96" s="14"/>
       <c r="L96" s="11"/>
-      <c r="M96"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="8"/>
-      <c r="B97" s="26"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="29"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="41"/>
       <c r="K97" s="14"/>
       <c r="L97" s="11"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M97"/>
+    </row>
+    <row r="98" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -2955,39 +4035,40 @@
       <c r="G98" s="9"/>
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="11"/>
+      <c r="J98" s="41"/>
       <c r="K98" s="14"/>
       <c r="L98" s="11"/>
-    </row>
-    <row r="99" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M98"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="11"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="29"/>
       <c r="K99" s="14"/>
       <c r="L99" s="11"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="8"/>
-      <c r="B100" s="26"/>
+      <c r="B100" s="8"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="26"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="29"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
       <c r="K100" s="14"/>
       <c r="L100" s="11"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3001,22 +4082,21 @@
       <c r="K101" s="14"/>
       <c r="L101" s="11"/>
     </row>
-    <row r="102" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="42"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="29"/>
       <c r="K102" s="14"/>
       <c r="L102" s="11"/>
-      <c r="M102"/>
-    </row>
-    <row r="103" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3026,26 +4106,26 @@
       <c r="G103" s="9"/>
       <c r="H103" s="10"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="42"/>
+      <c r="J103" s="11"/>
       <c r="K103" s="14"/>
       <c r="L103" s="11"/>
-      <c r="M103"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8"/>
-      <c r="B104" s="26"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="26"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="29"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="41"/>
       <c r="K104" s="14"/>
       <c r="L104" s="11"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M104"/>
+    </row>
+    <row r="105" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3055,25 +4135,26 @@
       <c r="G105" s="9"/>
       <c r="H105" s="10"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="11"/>
+      <c r="J105" s="41"/>
       <c r="K105" s="14"/>
       <c r="L105" s="11"/>
-    </row>
-    <row r="106" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M105"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+      <c r="D106" s="26"/>
       <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="11"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="29"/>
       <c r="K106" s="14"/>
       <c r="L106" s="11"/>
     </row>
-    <row r="107" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3087,59 +4168,59 @@
       <c r="K107" s="14"/>
       <c r="L107" s="11"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="8"/>
-      <c r="B108" s="26"/>
+      <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="26"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="8"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="44"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
       <c r="K108" s="14"/>
       <c r="L108" s="11"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="8"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="47"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
       <c r="K109" s="14"/>
       <c r="L109" s="11"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="11"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="43"/>
       <c r="K110" s="14"/>
       <c r="L110" s="11"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="11"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="46"/>
       <c r="K111" s="14"/>
       <c r="L111" s="11"/>
     </row>
@@ -3147,9 +4228,9 @@
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="D112" s="9"/>
       <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
+      <c r="F112" s="12"/>
       <c r="G112" s="9"/>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -3177,9 +4258,9 @@
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="9"/>
+      <c r="F114" s="8"/>
       <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
+      <c r="H114" s="8"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
       <c r="K114" s="14"/>
@@ -3191,11 +4272,11 @@
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="9"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
+      <c r="H115" s="8"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="42"/>
+      <c r="J115" s="11"/>
       <c r="K115" s="14"/>
       <c r="L115" s="11"/>
     </row>
@@ -3209,7 +4290,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="42"/>
+      <c r="J116" s="11"/>
       <c r="K116" s="14"/>
       <c r="L116" s="11"/>
     </row>
@@ -3223,7 +4304,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="11"/>
+      <c r="J117" s="41"/>
       <c r="K117" s="14"/>
       <c r="L117" s="11"/>
     </row>
@@ -3237,7 +4318,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="42"/>
+      <c r="J118" s="41"/>
       <c r="K118" s="14"/>
       <c r="L118" s="11"/>
     </row>
@@ -3251,7 +4332,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
-      <c r="J119" s="43"/>
+      <c r="J119" s="11"/>
       <c r="K119" s="14"/>
       <c r="L119" s="11"/>
     </row>
@@ -3265,7 +4346,7 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="42"/>
+      <c r="J120" s="41"/>
       <c r="K120" s="14"/>
       <c r="L120" s="11"/>
     </row>
@@ -3293,7 +4374,7 @@
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="42"/>
+      <c r="J122" s="41"/>
       <c r="K122" s="14"/>
       <c r="L122" s="11"/>
     </row>
@@ -3307,7 +4388,7 @@
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="42"/>
+      <c r="J123" s="41"/>
       <c r="K123" s="14"/>
       <c r="L123" s="11"/>
     </row>
@@ -3321,7 +4402,7 @@
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="11"/>
+      <c r="J124" s="41"/>
       <c r="K124" s="14"/>
       <c r="L124" s="11"/>
     </row>
@@ -3335,7 +4416,7 @@
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="11"/>
+      <c r="J125" s="41"/>
       <c r="K125" s="14"/>
       <c r="L125" s="11"/>
     </row>
@@ -3349,7 +4430,7 @@
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
-      <c r="J126" s="42"/>
+      <c r="J126" s="11"/>
       <c r="K126" s="14"/>
       <c r="L126" s="11"/>
     </row>
@@ -3363,7 +4444,7 @@
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
-      <c r="J127" s="42"/>
+      <c r="J127" s="11"/>
       <c r="K127" s="14"/>
       <c r="L127" s="11"/>
     </row>
@@ -3377,7 +4458,7 @@
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="42"/>
+      <c r="J128" s="41"/>
       <c r="K128" s="14"/>
       <c r="L128" s="11"/>
     </row>
@@ -3391,7 +4472,7 @@
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="42"/>
+      <c r="J129" s="41"/>
       <c r="K129" s="14"/>
       <c r="L129" s="11"/>
     </row>
@@ -3405,27 +4486,65 @@
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="42"/>
+      <c r="J130" s="41"/>
       <c r="K130" s="14"/>
       <c r="L130" s="11"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="45"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="17"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="11"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="11"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="44"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:N131" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
+  <autoFilter ref="A7:N133" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -3433,16 +4552,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト/結合テストチェックリスト_加藤.xlsx
+++ b/テスト/結合テストチェックリスト_加藤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C180D3-48FF-43D9-BD23-5A5D7BA8E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F2369D-6A14-465E-B0D6-6DA20E5688BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="198">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1259,19 +1259,6 @@
       <t>コウシン</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスに何も入力されていないときのエラーの確認</t>
-    <rPh sb="9" eb="10">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1452,6 +1439,3542 @@
     </rPh>
     <rPh sb="158" eb="160">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+テキストボックスに何も入力されていないときのエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+テキストボックスに何も入力されていないときのエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※社員番号は6桁で入力してください。"
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※その社員番号は既に存在しています。"
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TM_staff]に[230003]のデータがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※氏名は20文字以内で入力してください。"
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※ptの上限値を超えています。"
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[社員番号]の桁数が6桁以下の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[社員番号]の桁数が6桁以下の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[社員番号]の桁数が6桁以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[社員番号]の桁数が6桁以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[氏名]の桁数が20桁以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[pt]の値が上限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[pt]の値が下限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]入力値=abc
+[社員番号]入力値=12345
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="78" eb="82">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="115" eb="118">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="131" eb="134">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]入力値=abc
+[社員番号]入力値=1234567
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="133" eb="136">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]入力値=abc
+[社員番号]入力値=230003
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="76">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="80" eb="83">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="125" eb="128">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=123456789012345678901
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="98" eb="102">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="151" eb="154">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=32768
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="136" eb="139">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[Expt]の値が上限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※Exptの上限値を超えています。"
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[Expt]の値が下限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=32768
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="136" eb="139">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=-32769
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="84" eb="88">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="121" eb="124">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=-32769
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="84" eb="88">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="121" eb="124">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=128
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="118" eb="121">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="134" eb="137">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[勤続年数]の値が上限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※勤続年数の上限値を超えています。"
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=-129
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[勤続年数]の値が下限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[勤続年数]の値が上限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[勤続年数]の値が下限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=-129
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=128
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="118" eb="121">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="134" eb="137">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=-32769
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="84" eb="88">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="121" eb="124">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=32768
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="136" eb="139">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=-32769
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="84" eb="88">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="121" eb="124">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=32768
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="136" eb="139">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]入力値=abc
+[社員番号]入力値=1234567
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="133" eb="136">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]入力値=abc
+[社員番号]入力値=12345
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="78" eb="82">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="115" eb="118">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="131" eb="134">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[IT経験]の値が上限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[IT経験]の値が下限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[IT経験]の値が上限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[IT経験]の値が下限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=128
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="133" eb="136">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=-129
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="133" eb="136">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=128
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="133" eb="136">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=-129
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="133" eb="136">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※IT経験(年)の上限値を超えています。"
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[IT以外経験]の値が上限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[IT以外経験]の値が下限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[IT以外経験]の値が上限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[IT以外経験]の値が下限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=-129
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=128
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="134" eb="137">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=-129
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=128
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="134" eb="137">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※IT以外経験(年)の上限値を超えています。"
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+テキストボックスに入力された内容がDBに保存され、[社員テーブル]に表示されることを確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容がDBに保存され、[社員テーブル]に表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん
+[社員番号]入力値=123456
+[入社日]入力値=2023/10/10
+[生年月日]入力値=2023/10/10
+[Expt]入力値=10
+[pt]入力値=20
+[勤続年数(年)]入力値=0
+[学歴]入力値=専門卒
+[IT以外経験(年)]入力値=1
+[IT経験(年)]入力値=2
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="97" eb="101">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="115" eb="118">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>センモンソツ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="134" eb="137">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="149" eb="152">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[社員テーブル]に表示されることを確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[社員テーブル]に表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+削除フラグがONのデータが[社員テーブル]をクリックし、データを取得したときにONになっていることの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLくんのデータを[社員テーブル]からクリックし、取得したデータの[削除フラグ]がONになっている</t>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん
+[社員番号]入力値=123456
+[入社日]入力値=2022/1/11
+[生年月日]入力値=2010/4/9
+[Expt]入力値=5
+[pt]入力値=10
+[勤続年数(年)]入力値=12
+[学歴]入力値=大卒
+[IT以外経験(年)]入力値=5
+[IT経験(年)]入力値=1
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="93" eb="97">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ダイソツ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="130" eb="133">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="145" eb="148">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん
+[社員番号]入力値=123456
+[入社日]入力値=2022/1/11
+[生年月日]入力値=2010/4/9
+[Expt]入力値=5
+[pt]入力値=10
+[勤続年数(年)]入力値=12
+[学歴]入力値=大卒
+[IT以外経験(年)]入力値=5
+[IT経験(年)]入力値=1
+[削除フラグ]ラジオボタン=ON
+[更新]ボタン押下
+[社員テーブル]クリック</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="93" eb="97">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ダイソツ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="130" eb="133">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="145" eb="148">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価項目管理</t>
+    <rPh sb="0" eb="6">
+      <t>ヒョウカコウモクカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[会社評価管理]</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価管理]</t>
+    <rPh sb="1" eb="5">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[会社評価管理]ボタン押下時、
+[会社評価管理]画面に遷移することの確認</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="17" eb="23">
+      <t>カイシャヒョウカカンリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価管理]ボタン押下時、
+[自己評価管理]画面に遷移することの確認</t>
+    <rPh sb="1" eb="3">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[戻る]ボタン押下時、
+[選択]画面に遷移することの確認</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価管理]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[会社評価管理]ボタン押下
+</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[会社評価管理]画面に遷移する</t>
+    <rPh sb="1" eb="7">
+      <t>カイシャヒョウカカンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価管理]画面に遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[選択]画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社評価管理</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[会社評価テーブル]</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1776,7 +5299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1849,9 +5372,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1878,9 +5398,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1921,27 +5438,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1953,6 +5449,27 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2270,8 +5787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2290,74 +5807,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="52">
+      <c r="J1" s="50">
         <v>45163</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -2365,56 +5882,56 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -2445,7 +5962,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="38"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
@@ -2500,7 +6017,7 @@
       <c r="I10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="14"/>
       <c r="L10" s="11"/>
     </row>
@@ -2526,7 +6043,7 @@
       <c r="I11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="41"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="14"/>
       <c r="L11" s="11"/>
     </row>
@@ -2578,7 +6095,7 @@
       <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="14"/>
       <c r="L13" s="11"/>
     </row>
@@ -2604,7 +6121,7 @@
       <c r="I14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="42"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="14"/>
       <c r="L14" s="11"/>
     </row>
@@ -2790,7 +6307,7 @@
       <c r="I21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="41"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="14"/>
       <c r="L21" s="11"/>
     </row>
@@ -2925,13 +6442,13 @@
         <v>86</v>
       </c>
       <c r="J26" s="17"/>
-      <c r="K26" s="25"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="55"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="15" t="s">
         <v>80</v>
       </c>
@@ -2950,9 +6467,9 @@
       <c r="I27" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="57"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
@@ -3033,7 +6550,7 @@
         <v>94</v>
       </c>
       <c r="J30" s="17"/>
-      <c r="K30" s="25"/>
+      <c r="K30" s="24"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
@@ -3117,22 +6634,22 @@
         <v>113</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="G34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="14"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3141,493 +6658,847 @@
         <v>114</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="G35" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="14"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="E36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="J36" s="11"/>
       <c r="K36" s="14"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="E37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
+      <c r="E38" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="J38" s="11"/>
       <c r="K38" s="14"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
+      <c r="E39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="J39" s="11"/>
       <c r="K39" s="14"/>
       <c r="L39" s="11"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="26"/>
+    <row r="40" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="25"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="29"/>
+      <c r="E40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" s="28"/>
       <c r="K40" s="14"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="47"/>
+      <c r="E41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="45"/>
       <c r="K41" s="7"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="41"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="39"/>
       <c r="K42" s="14"/>
       <c r="L42" s="11"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="45"/>
+      <c r="E43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="43"/>
       <c r="K43" s="14"/>
       <c r="L43" s="11"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="41"/>
+      <c r="E44" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J44" s="39"/>
       <c r="K44" s="14"/>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
+      <c r="E45" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="J45" s="11"/>
       <c r="K45" s="14"/>
       <c r="L45" s="11"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
+      <c r="E46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="J46" s="11"/>
       <c r="K46" s="14"/>
       <c r="L46" s="11"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="26"/>
+    <row r="47" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="25"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="16"/>
+      <c r="E47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="J47" s="17"/>
-      <c r="K47" s="25"/>
+      <c r="K47" s="24"/>
       <c r="L47" s="17"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
+      <c r="E48" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="J48" s="6"/>
       <c r="K48" s="7"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="E49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="J49" s="11"/>
       <c r="K49" s="14"/>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="E50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="J50" s="11"/>
       <c r="K50" s="14"/>
       <c r="L50" s="11"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="E51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="14"/>
       <c r="L51" s="11"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
+      <c r="E52" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="J52" s="11"/>
       <c r="K52" s="14"/>
       <c r="L52" s="11"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
+      <c r="E53" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="J53" s="11"/>
       <c r="K53" s="14"/>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="6"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J55" s="11"/>
       <c r="K55" s="14"/>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="9"/>
+      <c r="E56" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="J56" s="11"/>
       <c r="K56" s="14"/>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="9"/>
+      <c r="E57" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="J57" s="11"/>
       <c r="K57" s="14"/>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="9"/>
+      <c r="E58" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="J58" s="11"/>
       <c r="K58" s="14"/>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="17"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" s="11"/>
       <c r="K59" s="14"/>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="6"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J60" s="11"/>
       <c r="K60" s="14"/>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="9"/>
+      <c r="E61" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="J61" s="11"/>
       <c r="K61" s="14"/>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="41"/>
+      <c r="E62" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J62" s="11"/>
       <c r="K62" s="14"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A63" s="8"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="43"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J63" s="11"/>
       <c r="K63" s="14"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="9"/>
+      <c r="E64" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="J64" s="11"/>
       <c r="K64" s="14"/>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="9"/>
+      <c r="B65" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="8">
+        <v>5</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="J65" s="11"/>
       <c r="K65" s="14"/>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="9"/>
+      <c r="E66" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="J66" s="11"/>
       <c r="K66" s="14"/>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="41"/>
+      <c r="E67" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J67" s="39"/>
       <c r="K67" s="14"/>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="41"/>
+      <c r="B68" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="8">
+        <v>6</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J68" s="39"/>
       <c r="K68" s="14"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="75" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="9"/>
+      <c r="D69" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="J69" s="11"/>
       <c r="K69" s="14"/>
       <c r="L69" s="11"/>
@@ -3642,7 +7513,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="41"/>
+      <c r="J70" s="39"/>
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
     </row>
@@ -3656,7 +7527,7 @@
       <c r="G71" s="9"/>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="41"/>
+      <c r="J71" s="39"/>
       <c r="K71" s="14"/>
       <c r="L71" s="11"/>
     </row>
@@ -3704,15 +7575,15 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="8"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="33"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="32"/>
       <c r="K75" s="14"/>
       <c r="L75" s="11"/>
     </row>
@@ -3726,7 +7597,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="33"/>
+      <c r="J76" s="32"/>
       <c r="K76" s="14"/>
       <c r="L76" s="11"/>
     </row>
@@ -3740,7 +7611,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="33"/>
+      <c r="J77" s="32"/>
       <c r="K77" s="14"/>
       <c r="L77" s="11"/>
     </row>
@@ -3754,7 +7625,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="33"/>
+      <c r="J78" s="32"/>
       <c r="K78" s="14"/>
       <c r="L78" s="11"/>
     </row>
@@ -3838,7 +7709,7 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="41"/>
+      <c r="J84" s="39"/>
       <c r="K84" s="14"/>
       <c r="L84" s="11"/>
     </row>
@@ -3866,7 +7737,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="41"/>
+      <c r="J86" s="39"/>
       <c r="K86" s="14"/>
       <c r="L86" s="11"/>
     </row>
@@ -3894,7 +7765,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="41"/>
+      <c r="J88" s="39"/>
       <c r="K88" s="14"/>
       <c r="L88" s="11"/>
     </row>
@@ -3936,7 +7807,7 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="41"/>
+      <c r="J91" s="39"/>
       <c r="K91" s="14"/>
       <c r="L91" s="11"/>
     </row>
@@ -3950,25 +7821,25 @@
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
-      <c r="J92" s="44"/>
+      <c r="J92" s="42"/>
       <c r="K92" s="14"/>
       <c r="L92" s="11"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" s="8"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="37"/>
-    </row>
-    <row r="94" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="35"/>
+    </row>
+    <row r="94" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3984,15 +7855,15 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" s="8"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="28"/>
       <c r="K95" s="14"/>
       <c r="L95" s="11"/>
     </row>
@@ -4010,7 +7881,7 @@
       <c r="K96" s="14"/>
       <c r="L96" s="11"/>
     </row>
-    <row r="97" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4020,12 +7891,12 @@
       <c r="G97" s="9"/>
       <c r="H97" s="10"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="41"/>
+      <c r="J97" s="39"/>
       <c r="K97" s="14"/>
       <c r="L97" s="11"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4035,22 +7906,22 @@
       <c r="G98" s="9"/>
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="41"/>
+      <c r="J98" s="39"/>
       <c r="K98" s="14"/>
       <c r="L98" s="11"/>
       <c r="M98"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="8"/>
-      <c r="B99" s="26"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="29"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="28"/>
       <c r="K99" s="14"/>
       <c r="L99" s="11"/>
     </row>
@@ -4068,7 +7939,7 @@
       <c r="K100" s="14"/>
       <c r="L100" s="11"/>
     </row>
-    <row r="101" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -4084,15 +7955,15 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="8"/>
-      <c r="B102" s="26"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="26"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="29"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="28"/>
       <c r="K102" s="14"/>
       <c r="L102" s="11"/>
     </row>
@@ -4110,7 +7981,7 @@
       <c r="K103" s="14"/>
       <c r="L103" s="11"/>
     </row>
-    <row r="104" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -4120,12 +7991,12 @@
       <c r="G104" s="9"/>
       <c r="H104" s="10"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="41"/>
+      <c r="J104" s="39"/>
       <c r="K104" s="14"/>
       <c r="L104" s="11"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -4135,22 +8006,22 @@
       <c r="G105" s="9"/>
       <c r="H105" s="10"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="41"/>
+      <c r="J105" s="39"/>
       <c r="K105" s="14"/>
       <c r="L105" s="11"/>
       <c r="M105"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="8"/>
-      <c r="B106" s="26"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="26"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="8"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="29"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="28"/>
       <c r="K106" s="14"/>
       <c r="L106" s="11"/>
     </row>
@@ -4168,7 +8039,7 @@
       <c r="K107" s="14"/>
       <c r="L107" s="11"/>
     </row>
-    <row r="108" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -4182,7 +8053,7 @@
       <c r="K108" s="14"/>
       <c r="L108" s="11"/>
     </row>
-    <row r="109" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -4198,29 +8069,29 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="8"/>
-      <c r="B110" s="26"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="26"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="43"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="41"/>
       <c r="K110" s="14"/>
       <c r="L110" s="11"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="8"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="46"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="44"/>
       <c r="K111" s="14"/>
       <c r="L111" s="11"/>
     </row>
@@ -4304,7 +8175,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="41"/>
+      <c r="J117" s="39"/>
       <c r="K117" s="14"/>
       <c r="L117" s="11"/>
     </row>
@@ -4318,7 +8189,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="41"/>
+      <c r="J118" s="39"/>
       <c r="K118" s="14"/>
       <c r="L118" s="11"/>
     </row>
@@ -4346,7 +8217,7 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="41"/>
+      <c r="J120" s="39"/>
       <c r="K120" s="14"/>
       <c r="L120" s="11"/>
     </row>
@@ -4360,7 +8231,7 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="42"/>
+      <c r="J121" s="40"/>
       <c r="K121" s="14"/>
       <c r="L121" s="11"/>
     </row>
@@ -4374,7 +8245,7 @@
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="41"/>
+      <c r="J122" s="39"/>
       <c r="K122" s="14"/>
       <c r="L122" s="11"/>
     </row>
@@ -4388,7 +8259,7 @@
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="41"/>
+      <c r="J123" s="39"/>
       <c r="K123" s="14"/>
       <c r="L123" s="11"/>
     </row>
@@ -4402,7 +8273,7 @@
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="41"/>
+      <c r="J124" s="39"/>
       <c r="K124" s="14"/>
       <c r="L124" s="11"/>
     </row>
@@ -4416,7 +8287,7 @@
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="41"/>
+      <c r="J125" s="39"/>
       <c r="K125" s="14"/>
       <c r="L125" s="11"/>
     </row>
@@ -4458,7 +8329,7 @@
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="41"/>
+      <c r="J128" s="39"/>
       <c r="K128" s="14"/>
       <c r="L128" s="11"/>
     </row>
@@ -4472,7 +8343,7 @@
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="41"/>
+      <c r="J129" s="39"/>
       <c r="K129" s="14"/>
       <c r="L129" s="11"/>
     </row>
@@ -4486,7 +8357,7 @@
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="41"/>
+      <c r="J130" s="39"/>
       <c r="K130" s="14"/>
       <c r="L130" s="11"/>
     </row>
@@ -4500,7 +8371,7 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="41"/>
+      <c r="J131" s="39"/>
       <c r="K131" s="14"/>
       <c r="L131" s="11"/>
     </row>
@@ -4514,7 +8385,7 @@
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="41"/>
+      <c r="J132" s="39"/>
       <c r="K132" s="14"/>
       <c r="L132" s="11"/>
     </row>
@@ -4528,23 +8399,13 @@
       <c r="G133" s="16"/>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
-      <c r="J133" s="44"/>
-      <c r="K133" s="25"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="24"/>
       <c r="L133" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N133" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -4552,6 +8413,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト/結合テストチェックリスト_加藤.xlsx
+++ b/テスト/結合テストチェックリスト_加藤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F2369D-6A14-465E-B0D6-6DA20E5688BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C244F5-1AF5-4CD1-A4B5-17858B5DC371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -924,22 +924,6 @@
     </rPh>
     <rPh sb="78" eb="80">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[画面読み込み時]</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4975,6 +4959,81 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TM_point]にデータがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面読み込み時[会社評価テーブル]に[TM_point]のデータが
+表示されていることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[会社評価テーブル]クリック時、
+クリックした行のデータが
+テキストボックスに
+表示されることの確認</t>
+    <rPh sb="1" eb="5">
+      <t>カイシャヒョウカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[会社評価テーブル]クリック</t>
+    <rPh sb="1" eb="5">
+      <t>カイシャヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[会社評価テーブル]に[TM_point]のデータが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5450,6 +5509,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5458,18 +5529,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5787,8 +5846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5807,74 +5866,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="50">
+      <c r="J1" s="54">
         <v>45163</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -5882,63 +5941,63 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="56"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -6214,7 +6273,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>48</v>
@@ -6240,7 +6299,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>49</v>
@@ -6266,7 +6325,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>68</v>
@@ -6430,16 +6489,16 @@
         <v>42</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>82</v>
       </c>
       <c r="H26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="24"/>
@@ -6456,16 +6515,16 @@
         <v>42</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>84</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J27" s="48"/>
       <c r="K27" s="49"/>
@@ -6482,16 +6541,16 @@
         <v>81</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>83</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
@@ -6500,7 +6559,7 @@
     <row r="29" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="8">
         <v>4</v>
@@ -6509,19 +6568,19 @@
         <v>80</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="14"/>
@@ -6535,19 +6594,19 @@
         <v>80</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="24"/>
@@ -6559,19 +6618,19 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="7"/>
@@ -6583,19 +6642,19 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="14"/>
@@ -6607,19 +6666,19 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="14"/>
@@ -6631,19 +6690,19 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="14"/>
@@ -6655,19 +6714,19 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="14"/>
@@ -6679,19 +6738,19 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="14"/>
@@ -6703,19 +6762,19 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
@@ -6727,19 +6786,19 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="14"/>
@@ -6751,19 +6810,19 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="14"/>
@@ -6775,19 +6834,19 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J40" s="28"/>
       <c r="K40" s="14"/>
@@ -6799,19 +6858,19 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="7"/>
@@ -6823,19 +6882,19 @@
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="J42" s="39"/>
       <c r="K42" s="14"/>
@@ -6847,19 +6906,19 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J43" s="43"/>
       <c r="K43" s="14"/>
@@ -6871,19 +6930,19 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="J44" s="39"/>
       <c r="K44" s="14"/>
@@ -6895,19 +6954,19 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="14"/>
@@ -6919,19 +6978,19 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="14"/>
@@ -6943,19 +7002,19 @@
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J47" s="17"/>
       <c r="K47" s="24"/>
@@ -6967,19 +7026,19 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="7"/>
@@ -6991,19 +7050,19 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="14"/>
@@ -7015,19 +7074,19 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="14"/>
@@ -7039,19 +7098,19 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="14"/>
@@ -7063,19 +7122,19 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="14"/>
@@ -7087,19 +7146,19 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="I53" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="14"/>
@@ -7111,19 +7170,19 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="14"/>
@@ -7135,19 +7194,19 @@
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="14"/>
@@ -7159,19 +7218,19 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="14"/>
@@ -7183,19 +7242,19 @@
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H57" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="14"/>
@@ -7207,19 +7266,19 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H58" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="14"/>
@@ -7231,19 +7290,19 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="14"/>
@@ -7255,19 +7314,19 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="14"/>
@@ -7279,19 +7338,19 @@
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="I61" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="14"/>
@@ -7303,19 +7362,19 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F62" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I62" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="14"/>
@@ -7327,19 +7386,19 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I63" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="14"/>
@@ -7351,19 +7410,19 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F64" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I64" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="14"/>
@@ -7372,7 +7431,7 @@
     <row r="65" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65" s="8">
         <v>5</v>
@@ -7381,19 +7440,19 @@
         <v>27</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H65" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="14"/>
@@ -7405,19 +7464,19 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="14"/>
@@ -7429,19 +7488,19 @@
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
       <c r="E67" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J67" s="39"/>
       <c r="K67" s="14"/>
@@ -7450,7 +7509,7 @@
     <row r="68" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C68" s="8">
         <v>6</v>
@@ -7459,19 +7518,19 @@
         <v>80</v>
       </c>
       <c r="E68" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F68" s="23" t="s">
-        <v>97</v>
-      </c>
       <c r="G68" s="9" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="J68" s="39"/>
       <c r="K68" s="14"/>
@@ -7485,19 +7544,19 @@
         <v>80</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="H69" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="14"/>
@@ -8406,6 +8465,16 @@
   </sheetData>
   <autoFilter ref="A7:N133" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -8413,16 +8482,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト/結合テストチェックリスト_加藤.xlsx
+++ b/テスト/結合テストチェックリスト_加藤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C244F5-1AF5-4CD1-A4B5-17858B5DC371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251FBF75-55B3-4EEF-BD25-CE672ED63B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="結合テストチェックリスト" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テストチェックリスト!$A$7:$N$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テストチェックリスト!$A$7:$N$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="191">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1489,12 +1489,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">[エラーメッセージ]に
-"※ptの上限値を超えています。"
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[登録確認OK]ボタン押下時
 [社員番号]の桁数が6桁以下の時のエラーの確認</t>
     <rPh sb="1" eb="3">
@@ -1582,70 +1576,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-[pt]の値が上限値以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-[pt]の値が下限値以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カゲン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2005,1233 +1935,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=32768
-[pt]入力値=なし
-[勤続年数(年)]入力値=なし
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="83" eb="87">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="102" eb="105">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="136" eb="139">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-[Expt]の値が上限値以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[エラーメッセージ]に
-"※Exptの上限値を超えています。"
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-[Expt]の値が下限値以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カゲン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=なし
-[pt]入力値=32768
-[勤続年数(年)]入力値=なし
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="83" eb="87">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="102" eb="105">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="136" eb="139">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=なし
-[pt]入力値=-32769
-[勤続年数(年)]入力値=なし
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="84" eb="88">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="92" eb="95">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="103" eb="106">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="121" eb="124">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="137" eb="140">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=-32769
-[pt]入力値=なし
-[勤続年数(年)]入力値=なし
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="76" eb="79">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="84" eb="88">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="92" eb="95">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="103" eb="106">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="121" eb="124">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="137" eb="140">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=なし
-[pt]入力値=なし
-[勤続年数(年)]入力値=128
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="80" eb="84">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="88" eb="91">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="100" eb="103">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="118" eb="121">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="134" eb="137">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-[勤続年数]の値が上限値以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[エラーメッセージ]に
-"※勤続年数の上限値を超えています。"
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=なし
-[pt]入力値=なし
-[勤続年数(年)]入力値=-129
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="80" eb="84">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="88" eb="91">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="101" eb="104">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="119" eb="122">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="135" eb="138">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-[勤続年数]の値が下限値以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カゲン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[更新確認OK]ボタン押下時
-[勤続年数]の値が上限値以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[更新確認OK]ボタン押下時
-[勤続年数]の値が下限値以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カゲン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=なし
-[pt]入力値=なし
-[勤続年数(年)]入力値=-129
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="80" eb="84">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="88" eb="91">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="101" eb="104">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="119" eb="122">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="135" eb="138">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=なし
-[pt]入力値=なし
-[勤続年数(年)]入力値=128
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="80" eb="84">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="88" eb="91">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="100" eb="103">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="118" eb="121">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="134" eb="137">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=なし
-[pt]入力値=-32769
-[勤続年数(年)]入力値=なし
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="84" eb="88">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="92" eb="95">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="103" eb="106">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="121" eb="124">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="137" eb="140">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=なし
-[pt]入力値=32768
-[勤続年数(年)]入力値=なし
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="83" eb="87">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="102" eb="105">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="136" eb="139">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=-32769
-[pt]入力値=なし
-[勤続年数(年)]入力値=なし
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="76" eb="79">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="84" eb="88">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="92" eb="95">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="103" eb="106">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="121" eb="124">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="137" eb="140">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=abc
-[社員番号]入力値=123456
-[入社日]入力値=なし
-[生年月日]入力値=なし
-[Expt]入力値=32768
-[pt]入力値=なし
-[勤続年数(年)]入力値=なし
-[学歴]入力値=なし
-[IT以外経験(年)]入力値=なし
-[IT経験(年)]入力値=なし
-[削除フラグ]ラジオボタン=OFF
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="83" eb="87">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="102" eb="105">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="136" eb="139">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[氏名]入力値=abc
 [社員番号]入力値=1234567
 [入社日]入力値=なし
@@ -4390,91 +3093,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[氏名]
-入力値=CLくん
-[社員番号]入力値=123456
-[入社日]入力値=2023/10/10
-[生年月日]入力値=2023/10/10
-[Expt]入力値=10
-[pt]入力値=20
-[勤続年数(年)]入力値=0
-[学歴]入力値=専門卒
-[IT以外経験(年)]入力値=1
-[IT経験(年)]入力値=2
-[削除フラグ]ラジオボタン=OFF
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="52" eb="56">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="89" eb="92">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="97" eb="101">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="105" eb="108">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="115" eb="118">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="119" eb="122">
-      <t>センモンソツ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="134" eb="137">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="149" eb="152">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[更新確認OK]ボタン押下時
 テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[社員テーブル]に表示されることを確認</t>
     <rPh sb="1" eb="3">
@@ -4528,219 +3146,6 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[更新確認OK]ボタン押下時
-削除フラグがONのデータが[社員テーブル]をクリックし、データを取得したときにONになっていることの確認</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CLくんのデータを[社員テーブル]からクリックし、取得したデータの[削除フラグ]がONになっている</t>
-    <rPh sb="10" eb="12">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=CLくん
-[社員番号]入力値=123456
-[入社日]入力値=2022/1/11
-[生年月日]入力値=2010/4/9
-[Expt]入力値=5
-[pt]入力値=10
-[勤続年数(年)]入力値=12
-[学歴]入力値=大卒
-[IT以外経験(年)]入力値=5
-[IT経験(年)]入力値=1
-[削除フラグ]ラジオボタン=OFF
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="85" eb="88">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="93" eb="97">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="101" eb="104">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="112" eb="115">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ダイソツ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="130" eb="133">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="145" eb="148">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=CLくん
-[社員番号]入力値=123456
-[入社日]入力値=2022/1/11
-[生年月日]入力値=2010/4/9
-[Expt]入力値=5
-[pt]入力値=10
-[勤続年数(年)]入力値=12
-[学歴]入力値=大卒
-[IT以外経験(年)]入力値=5
-[IT経験(年)]入力値=1
-[削除フラグ]ラジオボタン=ON
-[更新]ボタン押下
-[社員テーブル]クリック</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="85" eb="88">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="93" eb="97">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="101" eb="104">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="112" eb="115">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ダイソツ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="130" eb="133">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="145" eb="148">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>シャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5036,6 +3441,724 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[氏名]の桁数が20桁以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=123456789012345678901
+[社員番号]入力値=123456
+[入社日]入力値=なし
+[生年月日]入力値=なし
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="98" eb="102">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="151" eb="154">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[入社日]が[生年月日]より前の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=2023/4/1
+[生年月日]入力値=2023/4/31
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="92" eb="96">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="111" eb="114">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="129" eb="132">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="145" eb="148">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※入社日が生年月日よりも前になっています。"
+</t>
+    <rPh sb="18" eb="22">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[入社日]が[生年月日]より前の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=abc
+[社員番号]入力値=123456
+[入社日]入力値=2023/4/1
+[生年月日]入力値=2023/4/31
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=なし
+[IT経験(年)]入力値=なし
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="92" eb="96">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="111" eb="114">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="129" eb="132">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="145" eb="148">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん
+[社員番号]入力値=123456
+[入社日]入力値=2021/10/10
+[生年月日]入力値=2000/10/10
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=専門卒
+[IT以外経験(年)]入力値=1
+[IT経験(年)]入力値=2
+[削除フラグ]ラジオボタン=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="97" eb="101">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>センモンソツ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="150" eb="153">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん
+[社員番号]入力値=123456
+[入社日]入力値=2020/10/10
+[生年月日]入力値=2000/10/10
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=専門卒
+[IT以外経験(年)]入力値=2
+[IT経験(年)]入力値=1
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="97" eb="101">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>センモンソツ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="150" eb="153">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+削除フラグがONの[社員]が[社員テーブル]から表示されないことを確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグがONの[社員]が[社員テーブル]から表示されない</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん
+[社員番号]入力値=123456
+[入社日]入力値=2020/10/10
+[生年月日]入力値=2000/10/10
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=専門卒
+[IT以外経験(年)]入力値=2
+[IT経験(年)]入力値=1
+[削除フラグ]ラジオボタン=ON
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="97" eb="101">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>センモンソツ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="150" eb="153">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[削除済み社員表示]</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[削除フラグ]がONの社員が[TM_staff]に存在する</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[削除済み社員表示]ボタン押下</t>
+  </si>
+  <si>
+    <t>[削除済み社員表示]ボタン押下時
+[削除フラグ]がONの[社員]のみが[社員テーブル]に表示される</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[削除フラグ]がONの[社員]のみが[社員テーブル]に表示される</t>
   </si>
 </sst>
 </file>
@@ -5081,7 +4204,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5097,6 +4220,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5327,19 +4468,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -5352,13 +4480,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5488,26 +4627,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5516,19 +4661,136 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5844,10 +5106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5866,74 +5128,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="54">
+      <c r="J1" s="48">
         <v>45163</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -5941,56 +5203,56 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="53"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -6505,9 +5767,9 @@
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="46"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="15" t="s">
         <v>80</v>
       </c>
@@ -6526,9 +5788,9 @@
       <c r="I27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="48"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
@@ -6556,1009 +5818,929 @@
       <c r="K28" s="7"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:12" s="60" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="55">
         <v>4</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15" t="s">
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="58"/>
+    </row>
+    <row r="30" spans="1:12" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="63"/>
+    </row>
+    <row r="31" spans="1:12" s="69" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="67"/>
+    </row>
+    <row r="32" spans="1:12" s="69" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="72"/>
+    </row>
+    <row r="33" spans="1:12" s="69" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="72"/>
+    </row>
+    <row r="34" spans="1:12" s="79" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
+      <c r="J34" s="77"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="77"/>
+    </row>
+    <row r="35" spans="1:12" s="85" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
+      <c r="J35" s="83"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="83"/>
+    </row>
+    <row r="36" spans="1:12" s="79" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="77"/>
+    </row>
+    <row r="37" spans="1:12" s="85" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H37" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="83"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="83"/>
+    </row>
+    <row r="38" spans="1:12" s="79" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="J38" s="77"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="77"/>
+    </row>
+    <row r="39" spans="1:12" s="85" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="83"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="83"/>
+    </row>
+    <row r="40" spans="1:12" s="79" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="89"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="J40" s="91"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="77"/>
+    </row>
+    <row r="41" spans="1:12" s="79" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
+      <c r="I41" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="J41" s="93"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="95"/>
+    </row>
+    <row r="42" spans="1:12" s="85" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F42" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="9" t="s">
+      <c r="G42" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" s="96"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="87"/>
+    </row>
+    <row r="43" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="74"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="77"/>
+    </row>
+    <row r="44" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="74"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="77"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="77"/>
+    </row>
+    <row r="45" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="80"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="83"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="83"/>
+    </row>
+    <row r="46" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="80"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46" s="83"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="83"/>
+    </row>
+    <row r="47" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="74"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="77"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="77"/>
+    </row>
+    <row r="48" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="74"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48" s="77"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="77"/>
+    </row>
+    <row r="49" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="80"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="I49" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="83"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="83"/>
+    </row>
+    <row r="50" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="80"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" s="83"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="83"/>
+    </row>
+    <row r="51" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="74"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51" s="77"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="77"/>
+    </row>
+    <row r="52" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="80"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="J52" s="83"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="83"/>
+    </row>
+    <row r="53" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="74"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="J53" s="77"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="77"/>
+    </row>
+    <row r="54" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="80"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="I54" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" s="83"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="83"/>
+    </row>
+    <row r="55" spans="1:12" s="85" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="H55" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="I55" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="J55" s="83"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="83"/>
+    </row>
+    <row r="56" spans="1:12" s="85" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A56" s="80"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="J56" s="83"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="83"/>
+    </row>
+    <row r="57" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="23" t="s">
+      <c r="C57" s="8">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="25"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J40" s="28"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" ht="281.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J43" s="43"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="25"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="17"/>
-    </row>
-    <row r="48" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="I57" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="14"/>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="14"/>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F59" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J59" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="J59" s="39"/>
       <c r="K59" s="14"/>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="B60" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="8">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="E60" s="8" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="F60" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="I60" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J60" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="J60" s="39"/>
       <c r="K60" s="14"/>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="75" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8" t="s">
-        <v>113</v>
+      <c r="D61" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>174</v>
+      <c r="G61" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="14"/>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J62" s="11"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="39"/>
       <c r="K62" s="14"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="J63" s="11"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="39"/>
       <c r="K63" s="14"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="14"/>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
-      <c r="B65" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="8">
-        <v>5</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>192</v>
-      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="14"/>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>193</v>
-      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="14"/>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J67" s="39"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="32"/>
       <c r="K67" s="14"/>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
-      <c r="B68" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="8">
-        <v>6</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J68" s="39"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="32"/>
       <c r="K68" s="14"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J69" s="11"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="32"/>
       <c r="K69" s="14"/>
       <c r="L69" s="11"/>
     </row>
@@ -7566,13 +6748,13 @@
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="12"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="8"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="39"/>
+      <c r="J70" s="32"/>
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
     </row>
@@ -7580,13 +6762,13 @@
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="12"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="8"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="39"/>
+      <c r="J71" s="11"/>
       <c r="K71" s="14"/>
       <c r="L71" s="11"/>
     </row>
@@ -7594,11 +6776,11 @@
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="12"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="8"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="14"/>
@@ -7608,9 +6790,9 @@
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="12"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -7622,9 +6804,9 @@
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="12"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -7634,15 +6816,15 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="8"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="32"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
       <c r="K75" s="14"/>
       <c r="L75" s="11"/>
     </row>
@@ -7656,7 +6838,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="32"/>
+      <c r="J76" s="39"/>
       <c r="K76" s="14"/>
       <c r="L76" s="11"/>
     </row>
@@ -7670,7 +6852,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="32"/>
+      <c r="J77" s="11"/>
       <c r="K77" s="14"/>
       <c r="L77" s="11"/>
     </row>
@@ -7684,7 +6866,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="32"/>
+      <c r="J78" s="39"/>
       <c r="K78" s="14"/>
       <c r="L78" s="11"/>
     </row>
@@ -7708,15 +6890,15 @@
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="9"/>
+      <c r="F80" s="8"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="11"/>
+      <c r="J80" s="39"/>
       <c r="K80" s="14"/>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -7730,7 +6912,7 @@
       <c r="K81" s="14"/>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -7744,7 +6926,7 @@
       <c r="K82" s="14"/>
       <c r="L82" s="11"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -7754,67 +6936,67 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="11"/>
+      <c r="J83" s="39"/>
       <c r="K83" s="14"/>
       <c r="L83" s="11"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="39"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="42"/>
       <c r="K84" s="14"/>
       <c r="L84" s="11"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="11"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B85" s="25"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="35"/>
+    </row>
+    <row r="86" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="9"/>
+      <c r="F86" s="8"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
+      <c r="H86" s="10"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="39"/>
+      <c r="J86" s="11"/>
       <c r="K86" s="14"/>
       <c r="L86" s="11"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="11"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="28"/>
       <c r="K87" s="14"/>
       <c r="L87" s="11"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7822,111 +7004,113 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
+      <c r="H88" s="10"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="39"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="14"/>
       <c r="L88" s="11"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="9"/>
+      <c r="F89" s="8"/>
       <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
+      <c r="H89" s="10"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="11"/>
+      <c r="J89" s="39"/>
       <c r="K89" s="14"/>
       <c r="L89" s="11"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M89"/>
+    </row>
+    <row r="90" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="9"/>
+      <c r="F90" s="8"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="10"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="11"/>
+      <c r="J90" s="39"/>
       <c r="K90" s="14"/>
       <c r="L90" s="11"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M90"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="39"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="28"/>
       <c r="K91" s="14"/>
       <c r="L91" s="11"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="42"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
       <c r="K92" s="14"/>
       <c r="L92" s="11"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="35"/>
-    </row>
-    <row r="94" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="11"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="11"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="28"/>
       <c r="K94" s="14"/>
       <c r="L94" s="11"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="8"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="28"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
       <c r="K95" s="14"/>
       <c r="L95" s="11"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7936,9 +7120,10 @@
       <c r="G96" s="9"/>
       <c r="H96" s="10"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="11"/>
+      <c r="J96" s="39"/>
       <c r="K96" s="14"/>
       <c r="L96" s="11"/>
+      <c r="M96"/>
     </row>
     <row r="97" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="8"/>
@@ -7955,36 +7140,35 @@
       <c r="L97" s="11"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="39"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="28"/>
       <c r="K98" s="14"/>
       <c r="L98" s="11"/>
-      <c r="M98"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="8"/>
-      <c r="B99" s="25"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="28"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
       <c r="K99" s="14"/>
       <c r="L99" s="11"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -8022,40 +7206,39 @@
       <c r="G102" s="27"/>
       <c r="H102" s="38"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="28"/>
+      <c r="J102" s="41"/>
       <c r="K102" s="14"/>
       <c r="L102" s="11"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="11"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="43"/>
       <c r="K103" s="14"/>
       <c r="L103" s="11"/>
     </row>
-    <row r="104" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="D104" s="9"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="12"/>
       <c r="G104" s="9"/>
-      <c r="H104" s="10"/>
+      <c r="H104" s="8"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="39"/>
+      <c r="J104" s="11"/>
       <c r="K104" s="14"/>
       <c r="L104" s="11"/>
-      <c r="M104"/>
-    </row>
-    <row r="105" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -8063,24 +7246,23 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="10"/>
+      <c r="H105" s="8"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="39"/>
+      <c r="J105" s="11"/>
       <c r="K105" s="14"/>
       <c r="L105" s="11"/>
-      <c r="M105"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="8"/>
-      <c r="B106" s="25"/>
+      <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="25"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="8"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="28"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
       <c r="K106" s="14"/>
       <c r="L106" s="11"/>
     </row>
@@ -8092,65 +7274,65 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="9"/>
-      <c r="H107" s="10"/>
+      <c r="H107" s="8"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="14"/>
       <c r="L107" s="11"/>
     </row>
-    <row r="108" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="10"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="14"/>
       <c r="L108" s="11"/>
     </row>
-    <row r="109" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="9"/>
-      <c r="H109" s="10"/>
+      <c r="H109" s="9"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="11"/>
+      <c r="J109" s="39"/>
       <c r="K109" s="14"/>
       <c r="L109" s="11"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="8"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="8"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="25"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="41"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="39"/>
       <c r="K110" s="14"/>
       <c r="L110" s="11"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="8"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="44"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
       <c r="K111" s="14"/>
       <c r="L111" s="11"/>
     </row>
@@ -8158,13 +7340,13 @@
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="9"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="8"/>
-      <c r="F112" s="12"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="9"/>
-      <c r="H112" s="8"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="11"/>
+      <c r="J112" s="39"/>
       <c r="K112" s="14"/>
       <c r="L112" s="11"/>
     </row>
@@ -8174,11 +7356,11 @@
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="9"/>
-      <c r="H113" s="8"/>
+      <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="11"/>
+      <c r="J113" s="40"/>
       <c r="K113" s="14"/>
       <c r="L113" s="11"/>
     </row>
@@ -8188,11 +7370,11 @@
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="9"/>
-      <c r="H114" s="8"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="11"/>
+      <c r="J114" s="39"/>
       <c r="K114" s="14"/>
       <c r="L114" s="11"/>
     </row>
@@ -8202,11 +7384,11 @@
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="8"/>
+      <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="11"/>
+      <c r="J115" s="39"/>
       <c r="K115" s="14"/>
       <c r="L115" s="11"/>
     </row>
@@ -8220,7 +7402,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="11"/>
+      <c r="J116" s="39"/>
       <c r="K116" s="14"/>
       <c r="L116" s="11"/>
     </row>
@@ -8248,7 +7430,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="39"/>
+      <c r="J118" s="11"/>
       <c r="K118" s="14"/>
       <c r="L118" s="11"/>
     </row>
@@ -8290,7 +7472,7 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="40"/>
+      <c r="J121" s="39"/>
       <c r="K121" s="14"/>
       <c r="L121" s="11"/>
     </row>
@@ -8337,144 +7519,22 @@
       <c r="L124" s="11"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="39"/>
-      <c r="K125" s="14"/>
-      <c r="L125" s="11"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="14"/>
-      <c r="L126" s="11"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="14"/>
-      <c r="L127" s="11"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="39"/>
-      <c r="K128" s="14"/>
-      <c r="L128" s="11"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="39"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="11"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="39"/>
-      <c r="K130" s="14"/>
-      <c r="L130" s="11"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="14"/>
-      <c r="L131" s="11"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="11"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="24"/>
-      <c r="L133" s="17"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:N133" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
+  <autoFilter ref="A7:N125" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -8482,6 +7542,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト/結合テストチェックリスト_加藤.xlsx
+++ b/テスト/結合テストチェックリスト_加藤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251FBF75-55B3-4EEF-BD25-CE672ED63B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB772E38-01F6-4FCA-91D2-DA0AF8D26906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -3089,10 +3089,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テキストボックスに入力された内容がDBに保存され、[社員テーブル]に表示される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[更新確認OK]ボタン押下時
 テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[社員テーブル]に表示されることを確認</t>
     <rPh sb="1" eb="3">
@@ -3124,28 +3120,6 @@
     </rPh>
     <rPh sb="73" eb="75">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[社員テーブル]に表示される</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3791,6 +3765,296 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>[削除済み社員表示]</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[削除フラグ]がONの社員が[TM_staff]に存在する</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[削除済み社員表示]ボタン押下</t>
+  </si>
+  <si>
+    <t>[削除済み社員表示]ボタン押下時
+[削除フラグ]がONの[社員]のみが[社員テーブル]に表示される</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[削除フラグ]がONの[社員]のみが[社員テーブル]に表示される</t>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん
+[社員番号]入力値=123456
+[入社日]入力値=2020/10/10
+[生年月日]入力値=2000/10/10
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=専門卒(3年)
+[IT以外経験(年)]入力値=2
+[IT経験(年)]入力値=1
+[削除フラグ]ラジオボタン=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="97" eb="101">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="139" eb="142">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="154" eb="157">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん
+[社員番号]入力値=123456
+[入社日]入力値=2020/10/10
+[生年月日]入力値=2000/10/10
+[Expt]入力値=なし
+[pt]入力値=なし
+[勤続年数(年)]入力値=なし
+[学歴]入力値=専門卒(3年)
+[IT以外経験(年)]入力値=2
+[IT経験(年)]入力値=1
+[削除フラグ]ラジオボタン=ON
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="97" eb="101">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="139" eb="142">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="154" eb="157">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[社員テーブル]に表示される
+テキストボックスに以下のように出力される
+[勤続年数(年)]出力値=2
+[pt]出力値=23
+[Expt]出力値=1</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="78" eb="82">
+      <t>キンゾクネンスウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>[氏名]
 入力値=CLくん
 [社員番号]入力値=123456
@@ -3799,7 +4063,7 @@
 [Expt]入力値=なし
 [pt]入力値=なし
 [勤続年数(年)]入力値=なし
-[学歴]入力値=専門卒
+[学歴]入力値=専門卒(4年)
 [IT以外経験(年)]入力値=1
 [IT経験(年)]入力値=2
 [削除フラグ]ラジオボタン=OFF
@@ -3840,129 +4104,49 @@
     <rPh sb="116" eb="119">
       <t>ニュウリョクチ</t>
     </rPh>
-    <rPh sb="120" eb="123">
-      <t>センモンソツ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
+    <rPh sb="131" eb="133">
       <t>イガイ</t>
     </rPh>
-    <rPh sb="129" eb="131">
+    <rPh sb="133" eb="135">
       <t>ケイケン</t>
     </rPh>
-    <rPh sb="132" eb="133">
+    <rPh sb="136" eb="137">
       <t>ネン</t>
     </rPh>
-    <rPh sb="135" eb="138">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
+    <rPh sb="139" eb="142">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
       <t>ケイケン</t>
     </rPh>
-    <rPh sb="147" eb="148">
+    <rPh sb="151" eb="152">
       <t>ネン</t>
     </rPh>
-    <rPh sb="150" eb="153">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
+    <rPh sb="154" eb="157">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="175" eb="177">
+    <rPh sb="179" eb="181">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="181" eb="183">
+    <rPh sb="185" eb="187">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[氏名]
-入力値=CLくん
-[社員番号]入力値=123456
-[入社日]入力値=2020/10/10
-[生年月日]入力値=2000/10/10
-[Expt]入力値=なし
-[pt]入力値=なし
-[勤続年数(年)]入力値=なし
-[学歴]入力値=専門卒
-[IT以外経験(年)]入力値=2
-[IT経験(年)]入力値=1
-[削除フラグ]ラジオボタン=OFF
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="52" eb="56">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="89" eb="92">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="97" eb="101">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="105" eb="108">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="116" eb="119">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>センモンソツ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="135" eb="138">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="150" eb="153">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>オウカ</t>
-    </rPh>
+    <t>テキストボックスに入力された内容がDBに保存され、[社員テーブル]に表示される
+テキストボックスに以下のように出力される
+[勤続年数(年)]出力値=1
+[pt]出力値=27
+[Expt]出力値=2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[更新確認OK]ボタン押下時
-削除フラグがONの[社員]が[社員テーブル]から表示されないことを確認</t>
+削除フラグがONの[社員]が[社員テーブル]に表示されないことを確認</t>
     <rPh sb="1" eb="3">
       <t>コウシン</t>
     </rPh>
@@ -3981,16 +4165,16 @@
     <rPh sb="30" eb="32">
       <t>シャイン</t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="38" eb="40">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="48" eb="50">
+    <rPh sb="47" eb="49">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>削除フラグがONの[社員]が[社員テーブル]から表示されない</t>
+    <t>削除フラグがONの[社員]が[社員テーブル]に表示されない</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
@@ -4000,165 +4184,10 @@
     <rPh sb="15" eb="17">
       <t>シャイン</t>
     </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=CLくん
-[社員番号]入力値=123456
-[入社日]入力値=2020/10/10
-[生年月日]入力値=2000/10/10
-[Expt]入力値=なし
-[pt]入力値=なし
-[勤続年数(年)]入力値=なし
-[学歴]入力値=専門卒
-[IT以外経験(年)]入力値=2
-[IT経験(年)]入力値=1
-[削除フラグ]ラジオボタン=ON
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="52" eb="56">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="89" eb="92">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="97" eb="101">
-      <t>キンゾクネンスウ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="105" eb="108">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="116" eb="119">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>センモンソツ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="135" eb="138">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="150" eb="153">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[削除済み社員表示]</t>
-    <rPh sb="1" eb="3">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[削除フラグ]がONの社員が[TM_staff]に存在する</t>
-    <rPh sb="1" eb="3">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[削除済み社員表示]ボタン押下</t>
-  </si>
-  <si>
-    <t>[削除済み社員表示]ボタン押下時
-[削除フラグ]がONの[社員]のみが[社員テーブル]に表示される</t>
-    <rPh sb="1" eb="3">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[削除フラグ]がONの[社員]のみが[社員テーブル]に表示される</t>
   </si>
 </sst>
 </file>
@@ -4642,6 +4671,147 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4650,147 +4820,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5108,8 +5137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5128,74 +5157,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="48">
+      <c r="J1" s="95">
         <v>45163</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -5203,56 +5232,56 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="93" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="54"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -5818,690 +5847,690 @@
       <c r="K28" s="7"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" s="60" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56" t="s">
+    <row r="29" spans="1:12" s="53" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="48"/>
+      <c r="B29" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="48">
         <v>4</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="56" t="s">
+      <c r="I29" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="58"/>
-    </row>
-    <row r="30" spans="1:12" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.4">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61" t="s">
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="51"/>
+    </row>
+    <row r="30" spans="1:12" s="53" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="63"/>
-    </row>
-    <row r="31" spans="1:12" s="69" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65" t="s">
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="56"/>
+    </row>
+    <row r="31" spans="1:12" s="62" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="67"/>
-    </row>
-    <row r="32" spans="1:12" s="69" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70" t="s">
+      <c r="J31" s="60"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="60"/>
+    </row>
+    <row r="32" spans="1:12" s="62" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="H32" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="66" t="s">
+      <c r="I32" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="72"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="72"/>
-    </row>
-    <row r="33" spans="1:12" s="69" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70" t="s">
+      <c r="J32" s="65"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="65"/>
+    </row>
+    <row r="33" spans="1:12" s="62" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="H33" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="72"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="72"/>
-    </row>
-    <row r="34" spans="1:12" s="79" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74" t="s">
+      <c r="J33" s="65"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="65"/>
+    </row>
+    <row r="34" spans="1:12" s="72" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="76" t="s">
+      <c r="G34" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="76" t="s">
+      <c r="H34" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="I34" s="76" t="s">
+      <c r="I34" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="77"/>
-    </row>
-    <row r="35" spans="1:12" s="85" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80" t="s">
+      <c r="J34" s="70"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="70"/>
+    </row>
+    <row r="35" spans="1:12" s="78" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="82" t="s">
+      <c r="G35" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="82" t="s">
+      <c r="H35" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="82" t="s">
+      <c r="I35" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="83"/>
-    </row>
-    <row r="36" spans="1:12" s="79" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74" t="s">
+      <c r="J35" s="76"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="76"/>
+    </row>
+    <row r="36" spans="1:12" s="72" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="76" t="s">
+      <c r="G36" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="76" t="s">
+      <c r="H36" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="I36" s="76" t="s">
+      <c r="I36" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="77"/>
-    </row>
-    <row r="37" spans="1:12" s="85" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80" t="s">
+      <c r="J36" s="70"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="70"/>
+    </row>
+    <row r="37" spans="1:12" s="78" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="82" t="s">
+      <c r="G37" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="H37" s="82" t="s">
+      <c r="H37" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="I37" s="82" t="s">
+      <c r="I37" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J37" s="83"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="83"/>
-    </row>
-    <row r="38" spans="1:12" s="79" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74" t="s">
+      <c r="J37" s="76"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="76"/>
+    </row>
+    <row r="38" spans="1:12" s="72" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="76" t="s">
+      <c r="G38" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="H38" s="76" t="s">
+      <c r="H38" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="I38" s="76" t="s">
+      <c r="I38" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="77"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="77"/>
-    </row>
-    <row r="39" spans="1:12" s="85" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80" t="s">
+      <c r="J38" s="70"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="70"/>
+    </row>
+    <row r="39" spans="1:12" s="78" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="81" t="s">
+      <c r="F39" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="82" t="s">
+      <c r="G39" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="82" t="s">
+      <c r="H39" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="I39" s="82" t="s">
+      <c r="I39" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="83"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="83"/>
-    </row>
-    <row r="40" spans="1:12" s="79" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="89"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="74" t="s">
+      <c r="J39" s="76"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="76"/>
+    </row>
+    <row r="40" spans="1:12" s="72" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="82"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="76" t="s">
+      <c r="G40" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="76" t="s">
+      <c r="H40" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="76" t="s">
+      <c r="I40" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="91"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="77"/>
-    </row>
-    <row r="41" spans="1:12" s="79" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="74" t="s">
+      <c r="J40" s="84"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="70"/>
+    </row>
+    <row r="41" spans="1:12" s="72" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="76" t="s">
+      <c r="G41" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="76" t="s">
+      <c r="H41" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I41" s="76" t="s">
+      <c r="I41" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="J41" s="93"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="95"/>
-    </row>
-    <row r="42" spans="1:12" s="85" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="80" t="s">
+      <c r="J41" s="86"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="88"/>
+    </row>
+    <row r="42" spans="1:12" s="78" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="81" t="s">
+      <c r="F42" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="82" t="s">
+      <c r="G42" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" s="89"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="80"/>
+    </row>
+    <row r="43" spans="1:12" s="72" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="67"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" s="70"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="70"/>
+    </row>
+    <row r="44" spans="1:12" s="72" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="67"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="70"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="70"/>
+    </row>
+    <row r="45" spans="1:12" s="78" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="73"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="76"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="76"/>
+    </row>
+    <row r="46" spans="1:12" s="78" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="73"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46" s="76"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="76"/>
+    </row>
+    <row r="47" spans="1:12" s="72" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="67"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="70"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="70"/>
+    </row>
+    <row r="48" spans="1:12" s="72" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="67"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48" s="70"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="70"/>
+    </row>
+    <row r="49" spans="1:12" s="78" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="73"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="I49" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="76"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="76"/>
+    </row>
+    <row r="50" spans="1:12" s="78" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="73"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" s="76"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="76"/>
+    </row>
+    <row r="51" spans="1:12" s="72" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="67"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="H42" s="82" t="s">
+      <c r="H51" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="I42" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="J42" s="96"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="87"/>
-    </row>
-    <row r="43" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="74"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74" t="s">
+      <c r="I51" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="J51" s="70"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="70"/>
+    </row>
+    <row r="52" spans="1:12" s="78" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="73"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" s="76"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="76"/>
+    </row>
+    <row r="53" spans="1:12" s="72" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="67"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F53" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="77"/>
-    </row>
-    <row r="44" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="74"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="75" t="s">
+      <c r="G53" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="I53" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="J53" s="70"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="70"/>
+    </row>
+    <row r="54" spans="1:12" s="78" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="73"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="I44" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="J44" s="77"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="77"/>
-    </row>
-    <row r="45" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="80"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80" t="s">
+      <c r="G54" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="I54" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="J54" s="76"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="76"/>
+    </row>
+    <row r="55" spans="1:12" s="78" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="81" t="s">
+      <c r="F55" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="I45" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="J45" s="83"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="83"/>
-    </row>
-    <row r="46" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="80"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="I46" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" s="83"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="83"/>
-    </row>
-    <row r="47" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="74"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="H47" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="I47" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="J47" s="77"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="77"/>
-    </row>
-    <row r="48" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="74"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="I48" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="J48" s="77"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="77"/>
-    </row>
-    <row r="49" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="80"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="H49" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="I49" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="J49" s="83"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="83"/>
-    </row>
-    <row r="50" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="80"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="H50" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="I50" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="J50" s="83"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="83"/>
-    </row>
-    <row r="51" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A51" s="74"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="I51" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="J51" s="77"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="77"/>
-    </row>
-    <row r="52" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="80"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="82" t="s">
+      <c r="G55" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="H55" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="I55" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55" s="76"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="76"/>
+    </row>
+    <row r="56" spans="1:12" s="78" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="H52" s="82" t="s">
+      <c r="F56" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="I52" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="J52" s="83"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="83"/>
-    </row>
-    <row r="53" spans="1:12" s="79" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="74"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="H53" s="76" t="s">
+      <c r="G56" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="I53" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="J53" s="77"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="77"/>
-    </row>
-    <row r="54" spans="1:12" s="85" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="80"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="H54" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="I54" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="J54" s="83"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="83"/>
-    </row>
-    <row r="55" spans="1:12" s="85" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="82" t="s">
+      <c r="I56" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="H55" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="I55" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="J55" s="83"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="83"/>
-    </row>
-    <row r="56" spans="1:12" s="85" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="F56" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="G56" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="H56" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="I56" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="J56" s="83"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="83"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="76"/>
     </row>
     <row r="57" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C57" s="8">
         <v>5</v>
@@ -6510,19 +6539,19 @@
         <v>27</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="14"/>
@@ -6534,19 +6563,19 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="I58" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="14"/>
@@ -6564,13 +6593,13 @@
         <v>18</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>106</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J59" s="39"/>
       <c r="K59" s="14"/>
@@ -6579,7 +6608,7 @@
     <row r="60" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" s="8">
         <v>6</v>
@@ -6588,19 +6617,19 @@
         <v>80</v>
       </c>
       <c r="E60" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J60" s="39"/>
       <c r="K60" s="14"/>
@@ -6617,13 +6646,13 @@
         <v>90</v>
       </c>
       <c r="F61" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G61" s="16" t="s">
-        <v>171</v>
-      </c>
       <c r="H61" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>93</v>
@@ -7535,6 +7564,16 @@
   </sheetData>
   <autoFilter ref="A7:N125" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -7542,16 +7581,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト/結合テストチェックリスト_加藤.xlsx
+++ b/テスト/結合テストチェックリスト_加藤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C75B1-B495-4191-8F74-AFE2C70AB334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8475BF71-5569-4FBC-96F0-49A59DAE0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="282">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -7361,6 +7361,176 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=1862-07-22
+[年齢]値=161
+[入社日]値=1962-03-21
+[勤続年数]値=61
+[学歴]値=高専卒
+[基本給]値=223000
+[総合計]pt=23,Expt=2
+[取得タイトル]
+値=すべての資格のタイトルと,pt,Expt
+[社会人歴(中途)]IT=0,IT以外=3
+[IT経験]値=0
+[IT以外経験]値=6
+[現在]値=
+[前々年度]
+[1]年月=2021-09,pt=-4,Expt=0
+[2]年月=2022-03,pt=0,Expt=0
+[前年度]
+[1]年月=2022-09,pt=2,Expt=0
+[2]年月=-,pt=-,Expt=-
+[今年度]
+[1]年月=2023-9,pt=0,Expt=0
+[2]年月=-,pt=-,Expt=-
+[過去三年の合計]pt=-,Expt=-
+[総合計]pt=4,Expt=0</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="98" eb="101">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ジンレキ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>チュウト</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>マエマエ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="275" eb="276">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="325" eb="328">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="376" eb="380">
+      <t>カコサンネン</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="397" eb="400">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>[会社評価]画面ですべて選択
 [自己評価]画面
 [2023/9]すべてチェック
@@ -7370,6 +7540,7 @@
 [2021/9]勤務態度クレーム,懲戒
 [2021/3]応答,社内イベント
 [2020/9]すべて選択
+[2020/3]スキル不足,基本ポイント
 [社員]のデータ値
 [社員番号]値=999999
 [氏名]値=テスト用CL君
@@ -7424,59 +7595,356 @@
     <rPh sb="146" eb="148">
       <t>センタク</t>
     </rPh>
-    <rPh sb="156" eb="158">
+    <rPh sb="160" eb="162">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="177" eb="179">
       <t>シャイン</t>
     </rPh>
+    <rPh sb="179" eb="181">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="206" eb="210">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>コウソツ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="285" eb="286">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[会社評価]画面で何も選択しない
+[自己評価]画面
+[2023/9]すべてチェック
+[2023/3]何もチェックしない
+[2022/9]基本ポイント,スキルアップ
+[2022/3]報告,スキル不足
+[2021/9]勤務態度クレーム,懲戒
+[2021/3]応答,社内イベント
+[2020/9]すべて選択
+[2020/3]スキル不足,基本ポイント
+[社員]のデータ値
+[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=1962/03/21	
+[入社日]値=1962/03/21
+[学歴]値=-
+[IT経験]値=0
+[IT経験以外]値=10
+[削除チェックボタン]値=OFF</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>タイド</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>チョウカイ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="207" eb="211">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="248" eb="249">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>コウソツ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="284" eb="285">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=1962-03-21	
+[年齢]値=61
+[入社日]値=1962-03-21
+[勤続年数]値=61
+[学歴]値=-
+[基本給]値=235000
+[総合計]pt=34,Expt=43
+[取得タイトル]
+値=-
+[社会人歴(中途)]IT=0,IT以外=10
+[IT経験]値=0
+[IT以外経験]値=20
+[現在]値=
+[前々年度]
+[1]年月=2020-09,pt=0,Expt=0
+[2]年月=2021-03.pt=2,Expt=0
+[前年度]
+[1]年月=2021-09,pt=2,Expt=0
+[2]年月=2022-03,pt=0,Expt=0
+[今年度]
+[1]年月=2022-09,pt=2,Expt=0
+[2]年月=2023-03,pt=0,Expt=0
+[過去三年の合計]pt=-,Expt=-
+[総合計]pt=8,Expt=0</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ジンレキ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>チュウト</t>
+    </rPh>
     <rPh sb="158" eb="160">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>ヨウ</t>
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ケイケン</t>
     </rPh>
     <rPh sb="182" eb="183">
-      <t>クン</t>
-    </rPh>
-    <rPh sb="185" eb="189">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="225" eb="226">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>コウソツ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="249" eb="250">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="264" eb="265">
-      <t>アタイ</t>
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>マエマエ</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="319" eb="322">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="384" eb="388">
+      <t>カコサンネン</t>
+    </rPh>
+    <rPh sb="389" eb="391">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="405" eb="408">
+      <t>ソウゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7540,7 +8008,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7568,12 +8036,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7846,7 +8308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8069,26 +8531,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8097,19 +8550,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8428,8 +8869,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8449,74 +8890,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="85">
+      <c r="J1" s="74">
         <v>45163</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -8524,56 +8965,56 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="83" t="s">
+      <c r="K6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="77" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="84"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -10780,33 +11221,33 @@
       <c r="K92" s="56"/>
       <c r="L92" s="55"/>
     </row>
-    <row r="93" spans="1:13" s="80" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A93" s="74"/>
-      <c r="B93" s="74" t="s">
+    <row r="93" spans="1:13" s="57" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A93" s="53"/>
+      <c r="B93" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74" t="s">
+      <c r="C93" s="53"/>
+      <c r="D93" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="E93" s="75" t="s">
+      <c r="E93" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="F93" s="75" t="s">
-        <v>278</v>
+      <c r="F93" s="51" t="s">
+        <v>279</v>
       </c>
       <c r="G93" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="H93" s="75" t="s">
+      <c r="H93" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I93" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="J93" s="77"/>
-      <c r="K93" s="78"/>
-      <c r="L93" s="79"/>
+      <c r="I93" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="J93" s="71"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="55"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="8"/>
@@ -10822,19 +11263,33 @@
       <c r="K94" s="14"/>
       <c r="L94" s="11"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="11"/>
+    <row r="95" spans="1:13" s="57" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A95" s="53"/>
+      <c r="B95" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="F95" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="G95" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H95" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="J95" s="71"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="55"/>
     </row>
     <row r="96" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8"/>
@@ -11361,16 +11816,6 @@
   </sheetData>
   <autoFilter ref="A7:N132" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -11378,6 +11823,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
